--- a/similarities/split_global/harmonic_similarity_timestamps_27.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,686 +484,732 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_56</t>
+          <t>schubert-winterreise_149</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_16</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:7', 'C', 'A:min7']]</t>
+          <t>['A:min/E', 'E:(3,5,b7,b9)', 'A:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:7', 'A', 'A:maj6/b7']]</t>
+          <t>['D:min', 'A:(3,5,b7,b9)', 'D:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:58.584331', '0:02:10.136258')]</t>
+          <t>('0:01:03.120000', '0:01:09.420000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:42.960000', '0:00:46.750000')]</t>
+          <t>('0:01:38.700000', '0:01:58.800000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-56#t=118.584331']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-149#t=63.12</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-16#t=42.96']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=98.7</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_45</t>
+          <t>jaah_78</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_8</t>
+          <t>jaah_15</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['A:min7', 'D:min7', 'G:min7', 'C:7']]</t>
+          <t>['F:7', 'Bb', 'Eb:7', 'Bb']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['D:min7', 'G:min7', 'C:min7', 'F:7']]</t>
+          <t>['G:7', 'C', 'F:7', 'C']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:36.832000', '0:00:43.027000')]</t>
+          <t>('0:00:13.900000', '0:00:25.840000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:02.730000', '0:00:04.800000')]</t>
+          <t>('0:00:12.030000', '0:00:17.460000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=36.832']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=13.9</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-8#t=2.73']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-15#t=12.03</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_4</t>
+          <t>jaah_78</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>isophonics_280</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min']]</t>
+          <t>['E', 'B:7', 'E']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:08.240000', '0:00:13.460000')]</t>
+          <t>('0:00:49.560000', '0:00:55.720000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:13.740000', '0:00:22.560000')]</t>
+          <t>('0:01:01.683832', '0:01:05.956303')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=8.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=49.56</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=13.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-280#t=61.683832</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
+          <t>schubert-winterreise_157</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_30</t>
+          <t>isophonics_288</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['E', 'B', 'E']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:00.120000', '0:01:01.360000')]</t>
+          <t>('0:00:40.960000', '0:00:43.300000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:12.510000', '0:00:13.910000')]</t>
+          <t>('0:00:16.701519', '0:00:23.528185')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=60.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=40.96</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=12.51']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-288#t=16.701519</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
+          <t>isophonics_252</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_105</t>
+          <t>schubert-winterreise_49</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min'], ['C:min/G', 'G:7', 'C:min']]</t>
+          <t>['C:min', 'G:maj', 'C:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min'], ['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['A:min', 'E:maj/G#', 'A:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:11.240000', '0:00:17.760000'), ('0:00:20.920000', '0:00:26.040000')]</t>
+          <t>('0:00:07.523000', '0:00:10.397000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:09.140000', '0:00:16.920000'), ('0:00:19.480000', '0:00:25.860000')]</t>
+          <t>('0:00:10.760000', '0:00:16.080000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=11.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=20.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-252#t=7.523</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-105#t=9.14', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-105#t=19.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=10.76</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_43</t>
+          <t>jaah_77</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_73</t>
+          <t>jaah_3</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['D:7', 'G:7', 'C', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['F:7', 'Bb:7', 'Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:03.884104', '0:00:23.632675')]</t>
+          <t>('0:00:16.560000', '0:00:25.690000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:05.200000', '0:01:07.500000')]</t>
+          <t>('0:00:43.610000', '0:00:49.020000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-43#t=3.884104']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-77#t=16.56</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=65.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=43.61</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_90</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_59</t>
+          <t>isophonics_47</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C/5', 'G', 'C'], ['G', 'C', 'G/3']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:02:37.840000', '0:02:40.980000'), ('0:02:34.760000', '0:02:39.840000')]</t>
+          <t>('0:00:18.120000', '0:00:24.540000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:27.476822', '0:00:35.056893'), ('0:00:14.628775', '0:00:26.430680')]</t>
+          <t>('0:00:01.302038', '0:00:05.439841')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-90#t=157.84', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-90#t=154.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=18.12</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-59#t=27.476822', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-59#t=14.628775']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-47#t=1.302038</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_54</t>
+          <t>jaah_14</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
+          <t>['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb']]</t>
+          <t>['Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:24.520000', '0:00:47.240000')]</t>
+          <t>('0:01:58.780000', '0:02:03.820000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:22.370000', '0:00:47.630000')]</t>
+          <t>('0:01:06.930000', '0:01:40.770000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=24.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=118.78</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-54#t=22.37']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-14#t=66.93</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>schubert-winterreise_20</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_196</t>
+          <t>schubert-winterreise_9</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A/3']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D', 'G/5', 'D']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:13.527000', '0:00:17.058000')]</t>
+          <t>('0:00:39.040000', '0:00:46.100000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:12.707687', '0:00:25.501882')]</t>
+          <t>('0:00:04.860000', '0:00:09.640000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=13.527']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-20#t=39.04</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-196#t=12.707687']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=4.86</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>isophonics_107</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_61</t>
+          <t>schubert-winterreise_18</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:maj', 'A:min'], ['A:min/E', 'E:7', 'A:min']]</t>
+          <t>['A', 'E', 'B:7']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#', 'F#:min'], ['F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['A#:maj/D', 'F:maj/C', 'C:7']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:13.500000', '0:00:21.900000'), ('0:01:23.100000', '0:01:30.020000')]</t>
+          <t>('0:01:44.354195', '0:01:53.665396')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:03.744784', '0:00:06.774988'), ('0:00:24.387324', '0:00:27.452358')]</t>
+          <t>('0:01:13.320000', '0:01:16.840000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=13.5', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=83.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-107#t=104.354195</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=3.744784', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=24.387324']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=73.32</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
+          <t>schubert-winterreise_168</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj'], ['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['A#:min/F', 'F:7', 'A#:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:44.200000', '0:00:59.980000'), ('0:02:08.760000', '0:02:13.560000')]</t>
+          <t>('0:00:41.380000', '0:00:43.340000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:01:05.440000', '0:01:06.820000'), ('0:01:03.600000', '0:01:06.040000')]</t>
+          <t>('0:01:14.500000', '0:01:20.420000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=44.2', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=128.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=41.38</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=65.44', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=63.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=74.5</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr"/>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
+          <t>schubert-winterreise_123</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_32</t>
+          <t>schubert-winterreise_191</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
+          <t>['F:min', 'C:7/F', 'F:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G', 'D:7', 'G']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:20.560000', '0:00:23.940000')]</t>
+          <t>('0:00:14.920000', '0:00:20.760000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:11.550000', '0:00:25.740000')]</t>
+          <t>('0:00:00.680000', '0:00:02.980000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-2#t=20.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-123#t=14.92</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-32#t=11.55']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-191#t=0.68</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>isophonics_296</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>isophonics_34</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min'], ['F#:min', 'B:min/F#', 'F#:min']]</t>
+          <t>['D:maj', 'G:maj', 'C:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
+          <t>['Bb', 'Eb/5', 'Ab', 'Eb/3']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:03.320000', '0:00:08.680000'), ('0:00:00.560000', '0:00:04.260000')]</t>
+          <t>('0:00:13.822000', '0:00:20.852000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:20.200000', '0:01:26.860000'), ('0:00:26.200000', '0:00:33.960000')]</t>
+          <t>('0:01:33.181700', '0:01:39.497528')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=3.32', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=0.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=13.822</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=80.2', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=26.2']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-34#t=93.1817</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>isophonics_48</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_196</t>
+          <t>schubert-winterreise_153</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['A#/F', 'F:7', 'A#']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:04:31.220000', '0:04:38.420000')]</t>
+          <t>('0:01:22.290863', '0:01:33.575761')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:08.700000', '0:00:18.300000')]</t>
+          <t>('0:00:58.400000', '0:01:00.680000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=271.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-48#t=82.290863</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-196#t=8.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=58.4</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>jaah_67</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
+          <t>schubert-winterreise_102</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['C:7', 'F', 'C:7']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>['D:7', 'G:maj', 'D:7/F#']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:31.910000', '0:00:40.720000')]</t>
+          <t>('0:00:24.120000', '0:00:27')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:19.780000', '0:00:29.500000')]</t>
+          <t>('0:00:06.740000', '0:00:13.460000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=31.91']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-67#t=24.12</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-147#t=19.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-102#t=6.74</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -1172,6 +1218,8 @@
           <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
